--- a/ListasDatos/López Leal Luis David_2021.xlsx
+++ b/ListasDatos/López Leal Luis David_2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="226">
   <si>
     <t>NC</t>
   </si>
@@ -487,13 +487,211 @@
     <t>2721712088</t>
   </si>
   <si>
+    <t>NICOLASA SAVALA PELAYO</t>
+  </si>
+  <si>
+    <t>ANDRES BARRAGAN SANTOS</t>
+  </si>
+  <si>
+    <t>MARIA RAMÍREZ RAMÍREZ</t>
+  </si>
+  <si>
+    <t>EUSTOLIA HERNANDEZ SUAREZ</t>
+  </si>
+  <si>
+    <t>ROSA TZOMPAXTLE CERÓN</t>
+  </si>
+  <si>
+    <t>GLORIA PINEDA GARCÍA</t>
+  </si>
+  <si>
+    <t>LUZ VIANNEY MARCELINO VAZQUEZ</t>
+  </si>
+  <si>
+    <t>GLADIS ALEJANDRA MONTAVO CHACÓN</t>
+  </si>
+  <si>
+    <t>SARA VILLA LUNA</t>
+  </si>
+  <si>
+    <t>MARÍA DE JESÚS GONZÁLEZ TAPÍA</t>
+  </si>
+  <si>
+    <t>KARINA GUADALUPE PEREZ SAN JUAN</t>
+  </si>
+  <si>
+    <t>ANDRES GARCIA MONTIEL</t>
+  </si>
+  <si>
     <t>HEIDI AMELIA CAPORAL MORALES</t>
   </si>
   <si>
+    <t>JESUS SILVANO HERNANDEZ GARCIA</t>
+  </si>
+  <si>
+    <t>ESPERANZA LIBRADO CORONADA</t>
+  </si>
+  <si>
+    <t>MARCOS LUNA GARCIA</t>
+  </si>
+  <si>
+    <t>ELIZABETH FLORES GARCÍA</t>
+  </si>
+  <si>
+    <t>MARIA LUCRECIA RODRIGUEZ MORENO</t>
+  </si>
+  <si>
+    <t>HECTOR AURELIO MONT SARMIENTO</t>
+  </si>
+  <si>
+    <t>ALMA DELIA FLORES SAN PEDRO</t>
+  </si>
+  <si>
+    <t>ELSA JASMIN PAZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>ASUNCIÓN CASTILLO HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO QUERO RIVERA</t>
+  </si>
+  <si>
+    <t>KATIE MAGDALENA VILLEGAS GARRIDO</t>
+  </si>
+  <si>
+    <t>NATIVIDAD TLAXCALTECA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SOCORRO ARELLANO BERNABE</t>
+  </si>
+  <si>
+    <t>ELENA OLGA CASTRO MELCHOR</t>
+  </si>
+  <si>
+    <t>ANA GABRIELA MONTIEL AGUILAR</t>
+  </si>
+  <si>
+    <t>MARCELA FELICITAS XOTLANIHUA COLOHUA</t>
+  </si>
+  <si>
+    <t>diego123ramirez@icloud.com</t>
+  </si>
+  <si>
+    <t>eushernandez93@gmail.com</t>
+  </si>
+  <si>
+    <t>rousgartzg@gmail.com</t>
+  </si>
+  <si>
+    <t>Gloriapineda8121@gmail.com</t>
+  </si>
+  <si>
+    <t>luxviann1626@gmail.com</t>
+  </si>
+  <si>
+    <t>mariadejesusgonzaleztapia18@gmail.com</t>
+  </si>
+  <si>
     <t>franciscologan736@gmail.com</t>
   </si>
   <si>
+    <t>hildahernandez0011@gmail.com</t>
+  </si>
+  <si>
+    <t>esperanzacoronado795@gmail.com</t>
+  </si>
+  <si>
+    <t>distribuidor.imperio@gmail.com</t>
+  </si>
+  <si>
+    <t>elizabethflores110181@gmail.com</t>
+  </si>
+  <si>
+    <t>montlunah@gmail.com</t>
+  </si>
+  <si>
+    <t>elsajasminpaz@gmail.com</t>
+  </si>
+  <si>
+    <t>asuncast1508@gmail.com</t>
+  </si>
+  <si>
+    <t>fanasa122@gmail.com</t>
+  </si>
+  <si>
+    <t>abrilreyes353@gmail.com</t>
+  </si>
+  <si>
+    <t>socorroarellano410@gmail.com</t>
+  </si>
+  <si>
+    <t>elenaolgac05@hotmail.com</t>
+  </si>
+  <si>
+    <t>anagabrielamontielaguilar@gmil.com</t>
+  </si>
+  <si>
+    <t>marce_felicitas@hotmeil.com</t>
+  </si>
+  <si>
+    <t>2721149969</t>
+  </si>
+  <si>
+    <t>272207941q</t>
+  </si>
+  <si>
+    <t>2721875959</t>
+  </si>
+  <si>
+    <t>2722249426</t>
+  </si>
+  <si>
+    <t>2722973644</t>
+  </si>
+  <si>
+    <t>2721877112</t>
+  </si>
+  <si>
+    <t>2722337781</t>
+  </si>
+  <si>
+    <t>2721349831</t>
+  </si>
+  <si>
+    <t>2721428630</t>
+  </si>
+  <si>
     <t>27223064448</t>
+  </si>
+  <si>
+    <t>2721466616</t>
+  </si>
+  <si>
+    <t>2721968779</t>
+  </si>
+  <si>
+    <t>2727210379</t>
+  </si>
+  <si>
+    <t>2721991474</t>
+  </si>
+  <si>
+    <t>2722600364</t>
+  </si>
+  <si>
+    <t>2721567675</t>
+  </si>
+  <si>
+    <t>2721981229</t>
+  </si>
+  <si>
+    <t>2722229520</t>
+  </si>
+  <si>
+    <t>2721680521</t>
+  </si>
+  <si>
+    <t>2721312391</t>
   </si>
 </sst>
 </file>
@@ -920,6 +1118,15 @@
       <c r="G2" t="s">
         <v>143</v>
       </c>
+      <c r="H2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
@@ -943,6 +1150,12 @@
       <c r="G3" t="s">
         <v>144</v>
       </c>
+      <c r="H3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -963,6 +1176,15 @@
       <c r="F4" t="s">
         <v>117</v>
       </c>
+      <c r="H4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
@@ -986,6 +1208,15 @@
       <c r="G5" t="s">
         <v>145</v>
       </c>
+      <c r="H5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
@@ -1006,6 +1237,15 @@
       <c r="F6" t="s">
         <v>119</v>
       </c>
+      <c r="H6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J6" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
@@ -1029,6 +1269,15 @@
       <c r="G7" t="s">
         <v>146</v>
       </c>
+      <c r="H7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
@@ -1049,6 +1298,15 @@
       <c r="F8" t="s">
         <v>121</v>
       </c>
+      <c r="H8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
@@ -1069,6 +1327,12 @@
       <c r="G9" t="s">
         <v>147</v>
       </c>
+      <c r="H9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
@@ -1092,6 +1356,12 @@
       <c r="G10" t="s">
         <v>148</v>
       </c>
+      <c r="H10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
@@ -1112,6 +1382,15 @@
       <c r="F11" t="s">
         <v>123</v>
       </c>
+      <c r="H11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J11" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
@@ -1135,6 +1414,12 @@
       <c r="G12" t="s">
         <v>149</v>
       </c>
+      <c r="H12" t="s">
+        <v>167</v>
+      </c>
+      <c r="J12" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
@@ -1158,6 +1443,15 @@
       <c r="G13" t="s">
         <v>150</v>
       </c>
+      <c r="H13" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
@@ -1179,13 +1473,13 @@
         <v>126</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="I14" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="J14" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1210,6 +1504,15 @@
       <c r="G15" t="s">
         <v>127</v>
       </c>
+      <c r="H15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15" t="s">
+        <v>193</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
@@ -1233,8 +1536,17 @@
       <c r="G16" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="s">
+        <v>171</v>
+      </c>
+      <c r="I16" t="s">
+        <v>194</v>
+      </c>
+      <c r="J16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>21330051920124</v>
       </c>
@@ -1256,8 +1568,17 @@
       <c r="G17" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" t="s">
+        <v>195</v>
+      </c>
+      <c r="J17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>21330051920125</v>
       </c>
@@ -1279,8 +1600,17 @@
       <c r="G18" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" t="s">
+        <v>196</v>
+      </c>
+      <c r="J18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>21330051920126</v>
       </c>
@@ -1302,8 +1632,17 @@
       <c r="G19" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>21330051920127</v>
       </c>
@@ -1325,8 +1664,17 @@
       <c r="G20" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20330051920275</v>
       </c>
@@ -1345,8 +1693,17 @@
       <c r="F21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21330051920128</v>
       </c>
@@ -1368,8 +1725,17 @@
       <c r="G22" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>21330051920129</v>
       </c>
@@ -1388,8 +1754,17 @@
       <c r="G23" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>178</v>
+      </c>
+      <c r="I23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>21330051920130</v>
       </c>
@@ -1408,8 +1783,17 @@
       <c r="F24" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>21330051920131</v>
       </c>
@@ -1431,8 +1815,17 @@
       <c r="G25" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>18330051920377</v>
       </c>
@@ -1454,8 +1847,17 @@
       <c r="G26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>21330051920132</v>
       </c>
@@ -1474,8 +1876,17 @@
       <c r="F27" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>20330051920152</v>
       </c>
@@ -1494,8 +1905,17 @@
       <c r="F28" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="s">
+        <v>183</v>
+      </c>
+      <c r="I28" t="s">
+        <v>203</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>21330051920133</v>
       </c>
@@ -1517,8 +1937,17 @@
       <c r="G29" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="s">
+        <v>184</v>
+      </c>
+      <c r="I29" t="s">
+        <v>204</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>21330051920134</v>
       </c>
@@ -1536,6 +1965,15 @@
       </c>
       <c r="F30" t="s">
         <v>142</v>
+      </c>
+      <c r="H30" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
